--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711671.916531884</v>
+        <v>1709126.730458597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>272.6603925353769</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.4619742408227</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>321.5584859445101</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>61.71927587612997</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.19510348422572</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.546296656423316</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>58.32678498214226</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>61.32905684098938</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>73.21286800868195</v>
+        <v>81.88514173186341</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>113.5413580759688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S34" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.615473018211</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833991</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1293.521057189058</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>907.7328045908137</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>496.7468998012061</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>482.823495739797</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1533.789389274068</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.523690667317</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>789.7354380690731</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>378.7495332794655</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278601</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.28147018826922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1333.073993193677</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1333.073993193677</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>974.8082945869264</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>115.8915240839901</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>115.8915240839901</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,13 +4805,13 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>541.6499951733606</v>
+        <v>522.1611424104423</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>661.4897982516954</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1719.673833257799</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1719.673833257799</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1719.673833257799</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>2195.822675486408</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>849.4473100711502</v>
+        <v>971.1653989040896</v>
       </c>
       <c r="T10" t="n">
-        <v>849.4473100711502</v>
+        <v>745.5362022164545</v>
       </c>
       <c r="U10" t="n">
-        <v>849.4473100711502</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V10" t="n">
-        <v>849.4473100711502</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>849.4473100711502</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>849.4473100711502</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7184,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>218.690868449159</v>
+        <v>199.0051585876253</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>151.0368508858077</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S34" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462226</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392893</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791053</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791053</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
@@ -26329,31 +26329,31 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="K2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682722</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682713</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.53656668276</v>
+        <v>5677.536566682741</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.222329203</v>
+        <v>-349072.2223292032</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853421</v>
+        <v>240895.6568853418</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154707</v>
+        <v>85091.85079154672</v>
       </c>
       <c r="E6" t="n">
-        <v>-353207.4679728924</v>
+        <v>-353242.2058983282</v>
       </c>
       <c r="F6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="G6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="H6" t="n">
-        <v>417845.2234079135</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="I6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824782</v>
       </c>
       <c r="J6" t="n">
-        <v>241422.0042153214</v>
+        <v>241387.2662898853</v>
       </c>
       <c r="K6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824782</v>
       </c>
       <c r="L6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="M6" t="n">
-        <v>293636.7126998556</v>
+        <v>293601.9747744196</v>
       </c>
       <c r="N6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.485482478</v>
       </c>
       <c r="O6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="P6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824784</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>51.26238022898025</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.269126437646378</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0489046421611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.22568407628489</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>308.011824802339</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.0517176144021</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>243.5913466674047</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>323.6035850901195</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>57.16698405290092</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>132.1530138914367</v>
+        <v>123.4807401682552</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929658</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883002</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>463.959892919255</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,10 +32573,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008912</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188757</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,16 +35173,16 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>302.0879942820806</v>
+        <v>282.4022844205469</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>312.1603990360709</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629906</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496688</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359217</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255787</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045454</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
